--- a/materials/Day_05/tables_alkane_temperatures.xlsx
+++ b/materials/Day_05/tables_alkane_temperatures.xlsx
@@ -14,28 +14,22 @@
   <sheets>
     <sheet name="page-1_table-1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="167">
   <si>
     <t>ethane</t>
   </si>
   <si>
-    <t>88.630</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
     <t>propane</t>
   </si>
   <si>
-    <t>42.070</t>
-  </si>
-  <si>
     <t>-187.69</t>
   </si>
   <si>
@@ -51,30 +45,18 @@
     <t>2-methylpropane</t>
   </si>
   <si>
-    <t>11.730</t>
-  </si>
-  <si>
-    <t>159.60</t>
-  </si>
-  <si>
     <t>pentane</t>
   </si>
   <si>
     <t>36.074</t>
   </si>
   <si>
-    <t>129.72</t>
-  </si>
-  <si>
     <t>2-methylbutane</t>
   </si>
   <si>
     <t>27.852</t>
   </si>
   <si>
-    <t>159.90</t>
-  </si>
-  <si>
     <t>2,2-dimethylpropane</t>
   </si>
   <si>
@@ -108,9 +90,6 @@
     <t>63.282</t>
   </si>
   <si>
-    <t>- 118.00</t>
-  </si>
-  <si>
     <t>49.741</t>
   </si>
   <si>
@@ -123,9 +102,6 @@
     <t>57.988</t>
   </si>
   <si>
-    <t>128.54</t>
-  </si>
-  <si>
     <t>heptane</t>
   </si>
   <si>
@@ -150,54 +126,36 @@
     <t>91.850</t>
   </si>
   <si>
-    <t>- 119.40</t>
-  </si>
-  <si>
     <t>3-ethylpentane</t>
   </si>
   <si>
     <t>93.475</t>
   </si>
   <si>
-    <t>- 118.60</t>
-  </si>
-  <si>
     <t>2,2-dimethylpentane</t>
   </si>
   <si>
     <t>79.197</t>
   </si>
   <si>
-    <t>- 123.81</t>
-  </si>
-  <si>
     <t>2,3-dimethylpentane</t>
   </si>
   <si>
     <t>89.784</t>
   </si>
   <si>
-    <t>119.10</t>
-  </si>
-  <si>
     <t>2,4-dimethylpentane</t>
   </si>
   <si>
     <t>80.500</t>
   </si>
   <si>
-    <t>- 119.24</t>
-  </si>
-  <si>
     <t>3,3-dimethylpentane</t>
   </si>
   <si>
     <t>86.064</t>
   </si>
   <si>
-    <t>- 134.46</t>
-  </si>
-  <si>
     <t>2,3,3-trimethylbutane</t>
   </si>
   <si>
@@ -222,9 +180,6 @@
     <t>117.647</t>
   </si>
   <si>
-    <t>109.04</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -240,18 +195,12 @@
     <t>118.925</t>
   </si>
   <si>
-    <t>120.50</t>
-  </si>
-  <si>
     <t>4-methylheptane</t>
   </si>
   <si>
     <t>117.709</t>
   </si>
   <si>
-    <t>120.95</t>
-  </si>
-  <si>
     <t>3-ethylhexane</t>
   </si>
   <si>
@@ -264,9 +213,6 @@
     <t>106.840</t>
   </si>
   <si>
-    <t>121.18</t>
-  </si>
-  <si>
     <t>2,3-dimethylhexane</t>
   </si>
   <si>
@@ -279,9 +225,6 @@
     <t>109.429</t>
   </si>
   <si>
-    <t>137.50</t>
-  </si>
-  <si>
     <t>2,5-dimethylhexane</t>
   </si>
   <si>
@@ -297,9 +240,6 @@
     <t>111.969</t>
   </si>
   <si>
-    <t>126.10</t>
-  </si>
-  <si>
     <t>3,4-dimethylhexane</t>
   </si>
   <si>
@@ -309,9 +249,6 @@
     <t>115.650</t>
   </si>
   <si>
-    <t>114.96</t>
-  </si>
-  <si>
     <t>3-ethyl-3-methylpentane</t>
   </si>
   <si>
@@ -324,36 +261,24 @@
     <t>109.841</t>
   </si>
   <si>
-    <t>112.27</t>
-  </si>
-  <si>
     <t>2,2,4-trimethylpentane</t>
   </si>
   <si>
     <t>99.238</t>
   </si>
   <si>
-    <t>107.38</t>
-  </si>
-  <si>
     <t>2,3,3-trimethylpentane</t>
   </si>
   <si>
     <t>114.760</t>
   </si>
   <si>
-    <t>100.70</t>
-  </si>
-  <si>
     <t>2,3,4-trimethylpentane</t>
   </si>
   <si>
     <t>113.467</t>
   </si>
   <si>
-    <t>109.21</t>
-  </si>
-  <si>
     <t>106.470</t>
   </si>
   <si>
@@ -378,27 +303,18 @@
     <t>144.180</t>
   </si>
   <si>
-    <t>107.60</t>
-  </si>
-  <si>
     <t>4-methyloctane</t>
   </si>
   <si>
     <t>142.480</t>
   </si>
   <si>
-    <t>113.20</t>
-  </si>
-  <si>
     <t>3-ethylheptane</t>
   </si>
   <si>
     <t>143.000</t>
   </si>
   <si>
-    <t>114.90</t>
-  </si>
-  <si>
     <t>4-ethylheptane</t>
   </si>
   <si>
@@ -441,9 +357,6 @@
     <t>135.210</t>
   </si>
   <si>
-    <t>- 102.90</t>
-  </si>
-  <si>
     <t>3,3-dimethylheptane</t>
   </si>
   <si>
@@ -495,21 +408,12 @@
     <t>126.540</t>
   </si>
   <si>
-    <t>120.00</t>
-  </si>
-  <si>
     <t>124.084</t>
   </si>
   <si>
-    <t>105.78</t>
-  </si>
-  <si>
     <t>137.680</t>
   </si>
   <si>
-    <t>- 116.80</t>
-  </si>
-  <si>
     <t>2,3,4-trimethylhexane</t>
   </si>
   <si>
@@ -519,27 +423,18 @@
     <t>131.340</t>
   </si>
   <si>
-    <t>127.80</t>
-  </si>
-  <si>
     <t>2,4,4-trimethylhexane</t>
   </si>
   <si>
     <t>130.648</t>
   </si>
   <si>
-    <t>133.38</t>
-  </si>
-  <si>
     <t>3,3,4-trimethylhexane</t>
   </si>
   <si>
     <t>140.460</t>
   </si>
   <si>
-    <t>- 101.20</t>
-  </si>
-  <si>
     <t>3,3-diethylpentane</t>
   </si>
   <si>
@@ -567,9 +462,6 @@
     <t>136.730</t>
   </si>
   <si>
-    <t>- 122.20</t>
-  </si>
-  <si>
     <t>140.274</t>
   </si>
   <si>
@@ -579,9 +471,6 @@
     <t>133.016</t>
   </si>
   <si>
-    <t>121.09</t>
-  </si>
-  <si>
     <t>122.284</t>
   </si>
   <si>
@@ -589,9 +478,6 @@
   </si>
   <si>
     <t>141.551</t>
-  </si>
-  <si>
-    <t>102.12</t>
   </si>
   <si>
     <t>2,2,4,4-tetramethylpentane</t>
@@ -1018,8 +904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1032,21 +918,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
+      <c r="B2" s="2">
+        <v>-88.63</v>
       </c>
       <c r="C2" s="2">
         <v>-183.27</v>
@@ -1054,811 +940,811 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>-42.07</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="B5" s="2">
+        <v>-11.73</v>
+      </c>
+      <c r="C5" s="2">
+        <v>-159.6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="C6" s="2">
+        <v>-129.72</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
+      </c>
+      <c r="C7" s="2">
+        <v>-159.9</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
+      </c>
+      <c r="C11" s="2">
+        <v>-118</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>204</v>
+        <v>166</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
+      </c>
+      <c r="C13" s="2">
+        <v>-128.54</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
+      </c>
+      <c r="C16" s="2">
+        <v>-119.4</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
+      </c>
+      <c r="C17" s="2">
+        <v>-118.6</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>49</v>
+        <v>38</v>
+      </c>
+      <c r="C18" s="2">
+        <v>-123.81</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>52</v>
+        <v>40</v>
+      </c>
+      <c r="C19" s="2">
+        <v>-119.1</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>55</v>
+        <v>42</v>
+      </c>
+      <c r="C20" s="2">
+        <v>-119.24</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>58</v>
+        <v>44</v>
+      </c>
+      <c r="C21" s="2">
+        <v>-134.46</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>67</v>
+        <v>52</v>
+      </c>
+      <c r="C24" s="2">
+        <v>-109.04</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
+      </c>
+      <c r="C25" s="2">
+        <v>-120.5</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>76</v>
+        <v>59</v>
+      </c>
+      <c r="C26" s="2">
+        <v>-120.95</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>81</v>
+        <v>63</v>
+      </c>
+      <c r="C28" s="2">
+        <v>-121.18</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>86</v>
+        <v>67</v>
+      </c>
+      <c r="C30" s="2">
+        <v>-137.5</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>92</v>
+        <v>72</v>
+      </c>
+      <c r="C32" s="2">
+        <v>-126.1</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>195</v>
+        <v>157</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>96</v>
+        <v>75</v>
+      </c>
+      <c r="C34" s="2">
+        <v>-114.96</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>194</v>
+        <v>156</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>101</v>
+        <v>79</v>
+      </c>
+      <c r="C36" s="2">
+        <v>-112.27</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>104</v>
+        <v>81</v>
+      </c>
+      <c r="C37" s="2">
+        <v>-107.38</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>107</v>
+        <v>83</v>
+      </c>
+      <c r="C38" s="2">
+        <v>-100.7</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>110</v>
+        <v>85</v>
+      </c>
+      <c r="C39" s="2">
+        <v>-109.21</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>203</v>
+        <v>165</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>193</v>
+        <v>155</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>119</v>
+        <v>93</v>
+      </c>
+      <c r="C43" s="2">
+        <v>-107.6</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>122</v>
+        <v>95</v>
+      </c>
+      <c r="C44" s="2">
+        <v>-113.2</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>125</v>
+        <v>97</v>
+      </c>
+      <c r="C45" s="2">
+        <v>-114.9</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>140</v>
+        <v>111</v>
+      </c>
+      <c r="C51" s="2">
+        <v>-102.9</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>199</v>
+        <v>161</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>158</v>
+        <v>128</v>
+      </c>
+      <c r="C61" s="2">
+        <v>-120</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>196</v>
+        <v>158</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>160</v>
+        <v>129</v>
+      </c>
+      <c r="C62" s="2">
+        <v>-105.78</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>197</v>
+        <v>159</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>162</v>
+        <v>130</v>
+      </c>
+      <c r="C63" s="2">
+        <v>-116.8</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>198</v>
+        <v>160</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>166</v>
+        <v>133</v>
+      </c>
+      <c r="C65" s="2">
+        <v>-127.8</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>169</v>
+        <v>135</v>
+      </c>
+      <c r="C66" s="2">
+        <v>-133.38</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>172</v>
+        <v>137</v>
+      </c>
+      <c r="C67" s="2">
+        <v>-101.2</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>173</v>
+        <v>138</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>174</v>
+        <v>139</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>176</v>
+        <v>141</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>179</v>
+        <v>144</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>182</v>
+        <v>146</v>
+      </c>
+      <c r="C71" s="2">
+        <v>-122.2</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>200</v>
+        <v>162</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>183</v>
+        <v>147</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>184</v>
+        <v>148</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>201</v>
+        <v>163</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>186</v>
+        <v>149</v>
+      </c>
+      <c r="C73" s="2">
+        <v>-121.09</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>191</v>
+        <v>153</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>188</v>
+        <v>151</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>202</v>
+        <v>164</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>190</v>
+        <v>152</v>
+      </c>
+      <c r="C75" s="2">
+        <v>-102.12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:A11 B2:B24 C3:C24 A13:A24" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:A11 C3:C4 A13:A24 B6:B24 B4 C8:C10 C14:C15 C22:C23 C12" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>